--- a/fuentes/contenidos/grado08/guion06/Escaleta_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta_CN_08_06_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="14370" windowHeight="9240"/>
   </bookViews>
@@ -11,6 +16,9 @@
     <sheet name="DATOS" sheetId="2" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ESCALETA!$A$1:$U$33</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1582,7 +1590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1592,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2318,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>67</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>67</v>
       </c>
@@ -3508,7 +3516,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U33">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3524,11 +3540,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion06/Escaleta_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta_CN_08_06_CO.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14370" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="14370" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="ESCALETA" sheetId="1" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="2" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ESCALETA!$A$1:$U$33</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="239">
   <si>
     <t>Asignatura</t>
   </si>
@@ -314,9 +306,6 @@
   </si>
   <si>
     <t>Si</t>
-  </si>
-  <si>
-    <t>Secuencia de imágenes introductorias acerca de los conceptos generales de la genética</t>
   </si>
   <si>
     <t xml:space="preserve">Consolidación </t>
@@ -707,9 +696,6 @@
     <t>Evalúa tus conocimientos acerca del tema Los fundamentos de genética</t>
   </si>
   <si>
-    <t>La primera imagen de menú lleva a la explicación de qué es un gen (un fragmento de ADN que tiene las instrucciones para hacer una proteína); aquí también se explica que los genes determinan en parte cómo somos. La segunda imgen lleva a la explicación de donde se ubican los genes (locus y cromosomas), y otra imagen de menú habla de los alelos. Dentro de esta última hay varias pantallas en donde se explica qué son alelos, qué es dominancia, recesividad y codominancia, y como se representan los genes (letras mayúsculas y minúsculas segúan sean dominantes o recesivos, y letras con superíndices para codominantes). Al final de la exposición hay un recurso M1B para relacionar términos con su significado (gen, alelo, codominancia, etc).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preguntar acerca de qué es un gen, en donde se ubican, qué son alelos, dominancia y recesividad, homo y heterocigosis, codominancia y representación de genes </t>
   </si>
   <si>
@@ -800,7 +786,10 @@
     <t>Cambiar acento. La primera frase del audio cambia de La genética es la ciencia que estudia la transmisión de los caracteres morfológicos y biológicos que pasan de generación en generación” a "La genética es la ciencia que estudia la transmisión de los caracteres biológicos que pasan de generación en generación”</t>
   </si>
   <si>
-    <t>Recurso M101A-04</t>
+    <t>Interactivo que trata sobre la genética y su importancia</t>
+  </si>
+  <si>
+    <t>La primera imagen de menú lleva a la explicación de qué es un gen (un fragmento de ADN que tiene las instrucciones para hacer una proteína); aquí también se explica que los genes determinan en parte cómo somos. La segunda imagen lleva a la explicación de donde se ubican los genes (locus y cromosomas), y otra imagen de menú habla de los alelos. Dentro de esta última hay varias pantallas en donde se explica qué son alelos, qué es dominancia, recesividad y codominancia, y como se representan los genes (letras mayúsculas y minúsculas segúan sean dominantes o recesivos, y letras con superíndices para codominantes). Al final de la exposición hay un recurso M1B para relacionar términos con su significado (gen, alelo, codominancia, etc).</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1600,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,15 +1606,15 @@
     <col min="9" max="9" width="9.28515625" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="129.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="25" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="25" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14" style="25" customWidth="1"/>
+    <col min="15" max="15" width="90.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" style="24" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="10" customWidth="1"/>
     <col min="18" max="18" width="11.140625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="29.42578125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="44.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="60.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="10"/>
   </cols>
@@ -1745,7 +1734,7 @@
         <v>94</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>69</v>
@@ -1758,7 +1747,7 @@
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>19</v>
@@ -1767,16 +1756,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>199</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,20 +1782,20 @@
         <v>93</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>69</v>
@@ -1819,7 +1808,7 @@
         <v>62</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>19</v>
@@ -1828,16 +1817,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1851,14 +1840,14 @@
         <v>92</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>98</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>99</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1867,7 +1856,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>69</v>
@@ -1880,7 +1869,7 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>19</v>
@@ -1889,16 +1878,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="T5" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1912,23 +1901,23 @@
         <v>92</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>99</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K6" s="45" t="s">
         <v>69</v>
@@ -1948,16 +1937,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,23 +1960,23 @@
         <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>69</v>
@@ -2000,7 +1989,7 @@
         <v>62</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>19</v>
@@ -2009,16 +1998,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2032,12 +2021,12 @@
         <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="39"/>
       <c r="G8" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -2046,7 +2035,7 @@
         <v>94</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K8" s="45" t="s">
         <v>69</v>
@@ -2059,7 +2048,7 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>19</v>
@@ -2068,16 +2057,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="S8" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="S8" s="27" t="s">
-        <v>198</v>
-      </c>
       <c r="T8" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2091,21 +2080,21 @@
         <v>92</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="39"/>
       <c r="G9" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>70</v>
@@ -2120,19 +2109,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="S9" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="T9" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="U9" s="36" t="s">
         <v>105</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2146,16 +2135,16 @@
         <v>92</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>189</v>
-      </c>
       <c r="G10" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2164,7 +2153,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>69</v>
@@ -2177,7 +2166,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>19</v>
@@ -2186,16 +2175,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="S10" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="S10" s="27" t="s">
-        <v>198</v>
-      </c>
       <c r="T10" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2209,25 +2198,25 @@
         <v>92</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>189</v>
-      </c>
       <c r="G11" s="42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>69</v>
@@ -2247,16 +2236,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="T11" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2270,23 +2259,23 @@
         <v>92</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>69</v>
@@ -2306,19 +2295,19 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="T12" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="U12" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>67</v>
       </c>
@@ -2329,14 +2318,14 @@
         <v>92</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
@@ -2345,7 +2334,7 @@
         <v>94</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>70</v>
@@ -2356,28 +2345,28 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="S13" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="T13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>67</v>
       </c>
@@ -2388,14 +2377,14 @@
         <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -2404,7 +2393,7 @@
         <v>94</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>70</v>
@@ -2415,25 +2404,25 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P14" s="46" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="S14" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="T14" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="U14" s="36" t="s">
         <v>105</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2447,23 +2436,23 @@
         <v>92</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>70</v>
@@ -2478,19 +2467,19 @@
         <v>19</v>
       </c>
       <c r="Q15" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="S15" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="T15" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,14 +2493,14 @@
         <v>92</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2520,7 +2509,7 @@
         <v>94</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>70</v>
@@ -2535,19 +2524,19 @@
         <v>19</v>
       </c>
       <c r="Q16" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="R16" s="28" t="s">
+      <c r="S16" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="T16" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="U16" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="U16" s="37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2561,23 +2550,23 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>70</v>
@@ -2592,19 +2581,19 @@
         <v>19</v>
       </c>
       <c r="Q17" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="R17" s="28" t="s">
+      <c r="S17" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="S17" s="28" t="s">
+      <c r="T17" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="U17" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="T17" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2618,23 +2607,23 @@
         <v>92</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>70</v>
@@ -2649,19 +2638,19 @@
         <v>19</v>
       </c>
       <c r="Q18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2675,14 +2664,14 @@
         <v>92</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2691,7 +2680,7 @@
         <v>94</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>69</v>
@@ -2704,7 +2693,7 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>19</v>
@@ -2713,16 +2702,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="S19" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="T19" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2736,23 +2725,23 @@
         <v>92</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>70</v>
@@ -2767,19 +2756,19 @@
         <v>19</v>
       </c>
       <c r="Q20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>93</v>
       </c>
       <c r="T20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2793,23 +2782,23 @@
         <v>92</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>69</v>
@@ -2828,17 +2817,17 @@
       <c r="Q21" s="13">
         <v>6</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="T21" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2852,16 +2841,16 @@
         <v>92</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="F22" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="G22" s="42" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2870,7 +2859,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>70</v>
@@ -2881,25 +2870,25 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P22" s="46" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="S22" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2913,25 +2902,25 @@
         <v>92</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="F23" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G23" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>70</v>
@@ -2946,19 +2935,19 @@
         <v>19</v>
       </c>
       <c r="Q23" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U23" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2972,14 +2961,14 @@
         <v>92</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -2988,7 +2977,7 @@
         <v>94</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K24" s="45" t="s">
         <v>70</v>
@@ -3003,19 +2992,19 @@
         <v>19</v>
       </c>
       <c r="Q24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>93</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3029,23 +3018,23 @@
         <v>92</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K25" s="45" t="s">
         <v>69</v>
@@ -3058,7 +3047,7 @@
         <v>23</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P25" s="46" t="s">
         <v>20</v>
@@ -3067,16 +3056,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="S25" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="S25" s="28" t="s">
+      <c r="T25" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="U25" s="37" t="s">
         <v>154</v>
-      </c>
-      <c r="T25" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="U25" s="37" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3090,23 +3079,23 @@
         <v>92</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="45" t="s">
         <v>70</v>
@@ -3121,19 +3110,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R26" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="R26" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="S26" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3147,21 +3136,21 @@
         <v>92</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="39"/>
       <c r="G27" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K27" s="45" t="s">
         <v>70</v>
@@ -3176,19 +3165,19 @@
         <v>19</v>
       </c>
       <c r="Q27" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="R27" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="S27" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3202,21 +3191,21 @@
         <v>92</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="39"/>
       <c r="G28" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>70</v>
@@ -3231,19 +3220,19 @@
         <v>19</v>
       </c>
       <c r="Q28" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R28" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="R28" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="S28" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3257,21 +3246,21 @@
         <v>92</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="39"/>
       <c r="G29" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K29" s="45" t="s">
         <v>70</v>
@@ -3286,19 +3275,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R29" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="R29" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="S29" s="28" t="s">
         <v>93</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U29" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3312,21 +3301,21 @@
         <v>92</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="39"/>
       <c r="G30" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K30" s="45" t="s">
         <v>70</v>
@@ -3341,19 +3330,19 @@
         <v>19</v>
       </c>
       <c r="Q30" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R30" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="R30" s="28" t="s">
+      <c r="S30" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="S30" s="28" t="s">
+      <c r="T30" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="T30" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="U30" s="37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3367,21 +3356,21 @@
         <v>92</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="39"/>
       <c r="G31" s="42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K31" s="45" t="s">
         <v>69</v>
@@ -3412,21 +3401,21 @@
         <v>92</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="39"/>
       <c r="G32" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K32" s="45" t="s">
         <v>69</v>
@@ -3446,16 +3435,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S32" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="T32" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="T32" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3469,21 +3458,21 @@
         <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="39"/>
       <c r="G33" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H33" s="30">
         <v>31</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K33" s="45" t="s">
         <v>69</v>
@@ -3503,28 +3492,20 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S33" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="S33" s="11" t="s">
+      <c r="T33" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T33" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>155</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U33">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3540,6 +3521,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4305,7 +4291,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -4320,14 +4306,14 @@
         <v>92</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -4342,14 +4328,14 @@
         <v>92</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -4364,17 +4350,17 @@
         <v>92</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4388,17 +4374,17 @@
         <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4412,17 +4398,17 @@
         <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,17 +4422,17 @@
         <v>92</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4460,17 +4446,17 @@
         <v>92</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4484,17 +4470,17 @@
         <v>92</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4508,17 +4494,17 @@
         <v>92</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4532,19 +4518,19 @@
         <v>92</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>125</v>
-      </c>
       <c r="G13" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4558,19 +4544,19 @@
         <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>125</v>
-      </c>
       <c r="G14" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4584,19 +4570,19 @@
         <v>92</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>125</v>
-      </c>
       <c r="G15" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4610,19 +4596,19 @@
         <v>92</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>125</v>
-      </c>
       <c r="G16" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4636,17 +4622,17 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion06/Escaleta_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta_CN_08_06_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="241">
   <si>
     <t>Asignatura</t>
   </si>
@@ -362,18 +362,9 @@
     <t>Diferencia entre meiosis y mitosis</t>
   </si>
   <si>
-    <t>Actividad para reconocer diferencias entre la mitosis y la meiosis</t>
-  </si>
-  <si>
     <t>La reproducción sexual y la meiosis</t>
   </si>
   <si>
-    <t>Reconoce los tipos de reproducción en los organismos y en las células</t>
-  </si>
-  <si>
-    <t>Actividad para repasar conceptos fundamentales acerca de la reproducción de los organismos y las células</t>
-  </si>
-  <si>
     <t>Conoce la reproducción de los organismos y las células</t>
   </si>
   <si>
@@ -425,40 +416,22 @@
     <t>Competencias: comprobación de las leyes de Mendel</t>
   </si>
   <si>
-    <t>Competencias: ejercicio práctico acerca de los caracteres hereditarios</t>
-  </si>
-  <si>
     <t>Competencias: investigación sobre los caracteres hereditarios</t>
   </si>
   <si>
     <t>Competencias: construcción de un árbol genealógico</t>
   </si>
   <si>
-    <t>Actividad que propone el desarrollo de las destrezas para construir un árbol genealógico de un carácter hereditario</t>
-  </si>
-  <si>
     <t>Competencias: representación de la mitosis y la meiosis</t>
   </si>
   <si>
     <t>Los árboles genealógicos</t>
   </si>
   <si>
-    <t>Actividad para repasar las características y partes de la estructura de un cromosoma</t>
-  </si>
-  <si>
     <t>Animación acerca de las fases de la mitosis y los eventos que ocurren en cada una de ellas</t>
   </si>
   <si>
-    <t>Animación acerca de las fases de la meiosis y los eventos que ocurren en cada una de ellas</t>
-  </si>
-  <si>
     <t>Actividad para consolidar conceptos relacionados con el ciclo y la reproducción celular</t>
-  </si>
-  <si>
-    <t>Actividad para consolidar la información acerca de la influencia del ambiente en la herencia genética</t>
-  </si>
-  <si>
-    <t>Actividades de consolidación y comprensión de las leyes de Mendel</t>
   </si>
   <si>
     <t>Actividad que propone una experiencia práctica para comprender las leyes de Mendel</t>
@@ -648,9 +621,6 @@
     <t>Se debe hablar de ploidia, el número de cromosomas de diferentes especies (mecionar que tenemos 46, 23 pares, y que contienen aproximadamente 25000 genes, y que los gametos tiene los mismos genes pero en cromosomas sin duplicar. Comparar eso con otros organismos). También hay que exponer las aberraciones cromosómicas, tanto por número de cromosomas (usar el ejemplo de la trisomía 21 y de las superhembras, que tienen 3 cromomas x), como por alteraciones de los mismos: inversión, traslocación, duplicación, deleción e inserción.</t>
   </si>
   <si>
-    <t>Interactivo que trata la relación entre meiosis y reproducción sexual</t>
-  </si>
-  <si>
     <t>Interactivo que expone los conceptos de genotipo y fenotipo</t>
   </si>
   <si>
@@ -699,9 +669,6 @@
     <t xml:space="preserve">Preguntar acerca de qué es un gen, en donde se ubican, qué son alelos, dominancia y recesividad, homo y heterocigosis, codominancia y representación de genes </t>
   </si>
   <si>
-    <t>Actividad sobre cromosomas y aberraciones cromosómicas</t>
-  </si>
-  <si>
     <t>El número cromosómico y las aberraciones en los cromosomas</t>
   </si>
   <si>
@@ -771,9 +738,6 @@
     <t>Refuerza tu aprendizaje: La herencia y el ambiente</t>
   </si>
   <si>
-    <t>Interactivo que presenta la estructura del cromosoma y su proceso de condensación durante la división celular</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hacer una presentación explicando qué son los cromosomas y cómo se condensan y desenrrolan según la necesidad. </t>
   </si>
   <si>
@@ -790,6 +754,48 @@
   </si>
   <si>
     <t>La primera imagen de menú lleva a la explicación de qué es un gen (un fragmento de ADN que tiene las instrucciones para hacer una proteína); aquí también se explica que los genes determinan en parte cómo somos. La segunda imagen lleva a la explicación de donde se ubican los genes (locus y cromosomas), y otra imagen de menú habla de los alelos. Dentro de esta última hay varias pantallas en donde se explica qué son alelos, qué es dominancia, recesividad y codominancia, y como se representan los genes (letras mayúsculas y minúsculas segúan sean dominantes o recesivos, y letras con superíndices para codominantes). Al final de la exposición hay un recurso M1B para relacionar términos con su significado (gen, alelo, codominancia, etc).</t>
+  </si>
+  <si>
+    <t>Identifica las partes de la estructura de un cromosoma duplicado</t>
+  </si>
+  <si>
+    <t>Actividad para repasar la estructura de un cromosoma duplicado</t>
+  </si>
+  <si>
+    <t>Las diferencias entre meiosis y mitosis</t>
+  </si>
+  <si>
+    <t>Actividad acerca de las diferencias básicas entre los procesos de división celular denominados meiosis y mitosis</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes para relacionar la reproducción sexual con la división celular por meiosis</t>
+  </si>
+  <si>
+    <t>La reproducción y la herencia</t>
+  </si>
+  <si>
+    <t>Actividad sobre la reproducción de los organismos y las células y su relación con la herencia biológica</t>
+  </si>
+  <si>
+    <t>Interactivo que trata sobre los cromosomas, su estructura, ubicación y función</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar lo aprendido sobre los cromosomas y las aberraciones cromosómicas</t>
+  </si>
+  <si>
+    <t>Animación acerca de la meiosis, sus etapas y sus productos</t>
+  </si>
+  <si>
+    <t>Actividad para consolidar lo aprendido acerca de la influencia del ambiente en la herencia genética</t>
+  </si>
+  <si>
+    <t>Actividad acerca de las leyes de Mendel</t>
+  </si>
+  <si>
+    <t>Actividad que propone el desarrollo de las destrezas para construir un árbol genealógico de un caracter hereditario</t>
+  </si>
+  <si>
+    <t>¿Qué es y para qué sirve la genética?</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1731,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="38"/>
       <c r="G3" s="40" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="H3" s="34">
         <v>1</v>
@@ -1734,7 +1740,7 @@
         <v>94</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>69</v>
@@ -1747,7 +1753,7 @@
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>19</v>
@@ -1756,16 +1762,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,7 +1792,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="42" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
@@ -1795,7 +1801,7 @@
         <v>96</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>69</v>
@@ -1808,7 +1814,7 @@
         <v>62</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>19</v>
@@ -1817,16 +1823,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T4" s="47" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,7 +1853,7 @@
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="42" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1856,7 +1862,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>69</v>
@@ -1869,7 +1875,7 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>19</v>
@@ -1878,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="T5" s="47" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1908,7 +1914,7 @@
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="42" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1937,16 +1943,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1967,7 +1973,7 @@
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="42" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -1976,7 +1982,7 @@
         <v>96</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>69</v>
@@ -1989,7 +1995,7 @@
         <v>62</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>19</v>
@@ -1998,16 +2004,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T7" s="47" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2035,7 +2041,7 @@
         <v>94</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K8" s="45" t="s">
         <v>69</v>
@@ -2048,7 +2054,7 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>19</v>
@@ -2057,16 +2063,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2085,7 +2091,7 @@
       <c r="E9" s="29"/>
       <c r="F9" s="39"/>
       <c r="G9" s="42" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2094,7 +2100,7 @@
         <v>96</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>70</v>
@@ -2138,13 +2144,13 @@
         <v>101</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2153,7 +2159,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>69</v>
@@ -2166,7 +2172,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>19</v>
@@ -2175,16 +2181,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2201,13 +2207,13 @@
         <v>101</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2216,7 +2222,7 @@
         <v>96</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>69</v>
@@ -2236,16 +2242,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T11" s="47" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2266,7 +2272,7 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="42" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2275,7 +2281,7 @@
         <v>96</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>69</v>
@@ -2295,16 +2301,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2334,7 +2340,7 @@
         <v>94</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>70</v>
@@ -2345,7 +2351,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>19</v>
@@ -2393,7 +2399,7 @@
         <v>94</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>70</v>
@@ -2404,7 +2410,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="P14" s="46" t="s">
         <v>19</v>
@@ -2443,7 +2449,7 @@
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="42" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2452,7 +2458,7 @@
         <v>96</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>70</v>
@@ -2500,7 +2506,7 @@
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2509,7 +2515,7 @@
         <v>94</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>70</v>
@@ -2533,7 +2539,7 @@
         <v>104</v>
       </c>
       <c r="T16" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U16" s="37" t="s">
         <v>105</v>
@@ -2557,7 +2563,7 @@
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="42" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
@@ -2566,7 +2572,7 @@
         <v>96</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>70</v>
@@ -2590,7 +2596,7 @@
         <v>104</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="U17" s="37" t="s">
         <v>105</v>
@@ -2614,7 +2620,7 @@
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="42" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2623,7 +2629,7 @@
         <v>96</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>70</v>
@@ -2647,7 +2653,7 @@
         <v>104</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>105</v>
@@ -2664,14 +2670,14 @@
         <v>92</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="42" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2680,7 +2686,7 @@
         <v>94</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>69</v>
@@ -2693,7 +2699,7 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>19</v>
@@ -2702,16 +2708,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2725,14 +2731,14 @@
         <v>92</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="42" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
@@ -2741,7 +2747,7 @@
         <v>96</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>70</v>
@@ -2765,10 +2771,10 @@
         <v>93</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2782,14 +2788,14 @@
         <v>92</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>95</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="42" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2798,7 +2804,7 @@
         <v>96</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>69</v>
@@ -2818,16 +2824,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2841,16 +2847,16 @@
         <v>92</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2859,7 +2865,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>70</v>
@@ -2870,7 +2876,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P22" s="46" t="s">
         <v>19</v>
@@ -2885,10 +2891,10 @@
         <v>93</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2902,16 +2908,16 @@
         <v>92</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E23" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="42" t="s">
         <v>123</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>126</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
@@ -2920,7 +2926,7 @@
         <v>96</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>70</v>
@@ -2944,10 +2950,10 @@
         <v>93</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U23" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2961,14 +2967,14 @@
         <v>92</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -2977,7 +2983,7 @@
         <v>94</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K24" s="45" t="s">
         <v>70</v>
@@ -3001,10 +3007,10 @@
         <v>93</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3018,14 +3024,14 @@
         <v>92</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="42" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -3034,7 +3040,7 @@
         <v>96</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K25" s="45" t="s">
         <v>69</v>
@@ -3047,7 +3053,7 @@
         <v>23</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="P25" s="46" t="s">
         <v>20</v>
@@ -3056,16 +3062,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="28" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T25" s="28" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="U25" s="37" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3079,14 +3085,14 @@
         <v>92</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>99</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3095,7 +3101,7 @@
         <v>96</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="K26" s="45" t="s">
         <v>70</v>
@@ -3119,10 +3125,10 @@
         <v>93</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3136,12 +3142,12 @@
         <v>92</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="39"/>
       <c r="G27" s="42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3150,7 +3156,7 @@
         <v>96</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K27" s="45" t="s">
         <v>70</v>
@@ -3174,10 +3180,10 @@
         <v>93</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3191,12 +3197,12 @@
         <v>92</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="39"/>
       <c r="G28" s="42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3205,7 +3211,7 @@
         <v>96</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>70</v>
@@ -3229,10 +3235,10 @@
         <v>93</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3246,12 +3252,12 @@
         <v>92</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="39"/>
       <c r="G29" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3260,7 +3266,7 @@
         <v>96</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="K29" s="45" t="s">
         <v>70</v>
@@ -3284,10 +3290,10 @@
         <v>93</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U29" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3301,12 +3307,12 @@
         <v>92</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="39"/>
       <c r="G30" s="42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3315,7 +3321,7 @@
         <v>96</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K30" s="45" t="s">
         <v>70</v>
@@ -3339,7 +3345,7 @@
         <v>104</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="U30" s="37" t="s">
         <v>105</v>
@@ -3356,12 +3362,12 @@
         <v>92</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="39"/>
       <c r="G31" s="42" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3370,7 +3376,7 @@
         <v>96</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K31" s="45" t="s">
         <v>69</v>
@@ -3401,12 +3407,12 @@
         <v>92</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="39"/>
       <c r="G32" s="42" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3415,7 +3421,7 @@
         <v>96</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="K32" s="45" t="s">
         <v>69</v>
@@ -3435,16 +3441,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T32" s="47" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3458,12 +3464,12 @@
         <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="39"/>
       <c r="G33" s="42" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H33" s="30">
         <v>31</v>
@@ -3472,7 +3478,7 @@
         <v>96</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K33" s="45" t="s">
         <v>69</v>
@@ -3492,16 +3498,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T33" s="47" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4291,7 +4297,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -4313,7 +4319,7 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -4335,7 +4341,7 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -4357,10 +4363,10 @@
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4381,10 +4387,10 @@
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4405,10 +4411,10 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4429,10 +4435,10 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4453,10 +4459,10 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4477,10 +4483,10 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4501,10 +4507,10 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4518,19 +4524,19 @@
         <v>92</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4544,19 +4550,19 @@
         <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4570,19 +4576,19 @@
         <v>92</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4596,19 +4602,19 @@
         <v>92</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4622,17 +4628,17 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
